--- a/Burndown/BURNDOWN.xlsx
+++ b/Burndown/BURNDOWN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stefan Cruz\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5AD4076-19CA-4B90-82F7-61E3F4131187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5981D3A-7CF1-442B-9BE2-22A0ACF68210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{6526B2E5-8A22-4860-B5C4-65283DD69486}"/>
   </bookViews>
@@ -1730,6 +1730,57 @@
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3696,16 +3747,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4646,7 +4697,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4683,7 +4734,9 @@
       <c r="B3" s="1">
         <v>55</v>
       </c>
-      <c r="C3" s="1"/>
+      <c r="C3" s="1">
+        <v>50</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
@@ -4692,7 +4745,9 @@
       <c r="B4" s="1">
         <v>53</v>
       </c>
-      <c r="C4" s="1"/>
+      <c r="C4" s="1">
+        <v>50</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
@@ -4701,7 +4756,9 @@
       <c r="B5" s="1">
         <v>50</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="1">
+        <v>47</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
@@ -4710,7 +4767,9 @@
       <c r="B6" s="1">
         <v>47</v>
       </c>
-      <c r="C6" s="1"/>
+      <c r="C6" s="1">
+        <v>42</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
@@ -4719,7 +4778,9 @@
       <c r="B7" s="1">
         <v>37</v>
       </c>
-      <c r="C7" s="1"/>
+      <c r="C7" s="1">
+        <v>27</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
@@ -4728,7 +4789,9 @@
       <c r="B8" s="1">
         <v>36</v>
       </c>
-      <c r="C8" s="1"/>
+      <c r="C8" s="1">
+        <v>21</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
@@ -4737,7 +4800,9 @@
       <c r="B9" s="1">
         <v>33</v>
       </c>
-      <c r="C9" s="1"/>
+      <c r="C9" s="1">
+        <v>14</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
@@ -4746,7 +4811,9 @@
       <c r="B10" s="1">
         <v>30</v>
       </c>
-      <c r="C10" s="1"/>
+      <c r="C10" s="1">
+        <v>14</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
@@ -4755,7 +4822,9 @@
       <c r="B11" s="1">
         <v>27</v>
       </c>
-      <c r="C11" s="1"/>
+      <c r="C11" s="1">
+        <v>13</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
@@ -4764,7 +4833,9 @@
       <c r="B12" s="1">
         <v>20</v>
       </c>
-      <c r="C12" s="1"/>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
@@ -4773,7 +4844,9 @@
       <c r="B13" s="1">
         <v>19</v>
       </c>
-      <c r="C13" s="1"/>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
@@ -4782,7 +4855,9 @@
       <c r="B14" s="1">
         <v>17</v>
       </c>
-      <c r="C14" s="1"/>
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
@@ -4791,7 +4866,9 @@
       <c r="B15" s="1">
         <v>15</v>
       </c>
-      <c r="C15" s="1"/>
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
@@ -4800,7 +4877,9 @@
       <c r="B16" s="1">
         <v>12</v>
       </c>
-      <c r="C16" s="1"/>
+      <c r="C16" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
@@ -4809,7 +4888,9 @@
       <c r="B17" s="1">
         <v>4</v>
       </c>
-      <c r="C17" s="1"/>
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
@@ -4818,7 +4899,9 @@
       <c r="B18" s="1">
         <v>3</v>
       </c>
-      <c r="C18" s="1"/>
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
@@ -4827,7 +4910,9 @@
       <c r="B19" s="1">
         <v>0</v>
       </c>
-      <c r="C19" s="1"/>
+      <c r="C19" s="1">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
